--- a/synuclein_inclusion_biogenesis_2024/image_analysis/galectin/53025_WT_dox.xlsx
+++ b/synuclein_inclusion_biogenesis_2024/image_analysis/galectin/53025_WT_dox.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,277 +508,93 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_01.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4579</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2281</v>
+        <v>1983</v>
       </c>
       <c r="E2" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01812622843415593</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03638754932047348</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1065170805496029</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02712597770011649</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="L2" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>110.6689113103013</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.000332192243592631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_02.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1768</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2226</v>
+        <v>420</v>
       </c>
       <c r="E3" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05203619909502263</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04132973944294699</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08755946142062404</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03420745920745921</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>14</v>
       </c>
       <c r="L3" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>49.34891164812396</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0002674429079771181</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_03.czi</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>147</v>
-      </c>
-      <c r="D4" t="n">
-        <v>782</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0003440919413667332</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.001564238425186442</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>18</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_04.czi</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1698</v>
-      </c>
-      <c r="D5" t="n">
-        <v>408</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.01938939475093733</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.02005234494791942</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>12</v>
-      </c>
-      <c r="L5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_03.czi</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>16296</v>
-      </c>
-      <c r="D6" t="n">
-        <v>565</v>
-      </c>
-      <c r="E6" t="n">
-        <v>165</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.01012518409425626</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.2920353982300885</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.3311556804076566</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.1057228886686997</v>
-      </c>
-      <c r="J6" t="n">
-        <v>9</v>
-      </c>
-      <c r="K6" t="n">
-        <v>20</v>
-      </c>
-      <c r="L6" t="n">
-        <v>21</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2768.368322372866</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.0006671996756902843</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_04.czi</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>8830</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1737</v>
-      </c>
-      <c r="E7" t="n">
-        <v>246</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.02785956964892412</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.1416234887737478</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.2746159992897096</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.04337458839559442</v>
-      </c>
-      <c r="J7" t="n">
-        <v>20</v>
-      </c>
-      <c r="K7" t="n">
-        <v>34</v>
-      </c>
-      <c r="L7" t="n">
-        <v>43</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1136.375492657988</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.0009909463537678483</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
